--- a/data/trans_orig/IP1004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ABEADD0-7564-419F-8B40-999D3B84A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C6262F-9D12-43B3-9952-54F6DA6D2E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{97912AE4-331D-4B68-B584-B4E87C7209EB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10BC5552-C650-4CF7-A469-6B01F0770842}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,39 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -124,9 +157,6 @@
     <t>98,39%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
     <t>98,65%</t>
   </si>
   <si>
@@ -148,42 +178,12 @@
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
@@ -235,6 +235,36 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
@@ -253,36 +283,6 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>99,15%</t>
   </si>
   <si>
@@ -334,6 +334,24 @@
     <t>0,3%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
@@ -350,24 +368,6 @@
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD23B7B-1840-49A6-91F9-B127F9C2BC34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB290452-83A6-4159-8048-213399BA220E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1056,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>279565</v>
+        <v>216719</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1068,37 +1068,37 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>304</v>
+      </c>
+      <c r="I7" s="7">
+        <v>205222</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>392</v>
-      </c>
-      <c r="I7" s="7">
-        <v>264188</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>632</v>
+      </c>
+      <c r="N7" s="7">
+        <v>421941</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>811</v>
-      </c>
-      <c r="N7" s="7">
-        <v>543753</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1107,49 +1107,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1933</v>
+        <v>1322</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1322</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1415</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3348</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1158,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1173,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1188,10 +1188,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1205,55 +1205,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="D10" s="7">
-        <v>216719</v>
+        <v>279565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
+        <v>392</v>
+      </c>
+      <c r="I10" s="7">
+        <v>264188</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>811</v>
+      </c>
+      <c r="N10" s="7">
+        <v>543753</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>304</v>
-      </c>
-      <c r="I10" s="7">
-        <v>205222</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>632</v>
-      </c>
-      <c r="N10" s="7">
-        <v>421941</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1262,46 +1262,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1933</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1322</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>1415</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>1322</v>
+        <v>3348</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -1313,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1328,10 +1328,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1343,10 +1343,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>679606</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>51</v>
@@ -1438,7 +1438,7 @@
         <v>1415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D14DE3-F883-4B3C-BED0-0412D3941B1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0218B2-472D-407C-888B-2068AC00EC78}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1802,49 +1802,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>269497</v>
+        <v>238578</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="I7" s="7">
-        <v>254202</v>
+        <v>227388</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>759</v>
+        <v>648</v>
       </c>
       <c r="N7" s="7">
-        <v>523699</v>
+        <v>465966</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,49 +1853,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>857</v>
+        <v>1522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>857</v>
+        <v>2312</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1919,10 +1919,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1934,10 +1934,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1951,55 +1951,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>238578</v>
+        <v>269497</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>227388</v>
+        <v>254202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>759</v>
+      </c>
+      <c r="N10" s="7">
+        <v>523699</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>648</v>
-      </c>
-      <c r="N10" s="7">
-        <v>465966</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,46 +2008,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1522</v>
+        <v>857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
-        <v>790</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="N11" s="7">
+        <v>857</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2312</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>80</v>
@@ -2059,10 +2059,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2074,10 +2074,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2089,10 +2089,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2118,7 +2118,7 @@
         <v>745763</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>81</v>
@@ -2169,7 +2169,7 @@
         <v>2379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>87</v>
@@ -2275,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AD80C0-6FEF-401F-830C-7E855BC91389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C75141-3915-4D6F-83C3-AE878344C34F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,49 +2548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>358</v>
+      </c>
+      <c r="I7" s="7">
+        <v>233973</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>375</v>
-      </c>
-      <c r="I7" s="7">
-        <v>267770</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="N7" s="7">
-        <v>549399</v>
+        <v>484025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,34 +2611,34 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1360</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>103</v>
@@ -2650,10 +2650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2665,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2680,10 +2680,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2697,55 +2697,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>233973</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>756</v>
+      </c>
+      <c r="N10" s="7">
+        <v>549399</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>721</v>
-      </c>
-      <c r="N10" s="7">
-        <v>484025</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,34 +2766,34 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>109</v>
@@ -2805,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2820,10 +2820,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2835,10 +2835,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP1004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C6262F-9D12-43B3-9952-54F6DA6D2E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E4D815-5678-4807-A838-41B61B5557DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10BC5552-C650-4CF7-A469-6B01F0770842}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0F8459E-75BC-497A-9D2A-AD5D159BB844}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="148">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,322 +94,394 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>99,66%</t>
   </si>
 </sst>
 </file>
@@ -402,7 +492,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -498,39 +588,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -582,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -693,13 +783,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -708,6 +791,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -772,19 +862,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB290452-83A6-4159-8048-213399BA220E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC5C5C5-C856-4D19-8F29-BC57E446DC72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -901,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -916,34 +1026,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -952,10 +1062,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -967,34 +1077,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1003,49 +1113,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1056,49 +1166,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>216719</v>
+        <v>1322</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>205222</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>421941</v>
+        <v>1322</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1107,49 +1217,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>1322</v>
+        <v>252434</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>253205</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>759</v>
       </c>
       <c r="N8" s="7">
-        <v>1322</v>
+        <v>505639</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1158,49 +1268,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1211,49 +1321,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>279565</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>732</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>732</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7">
-        <v>392</v>
-      </c>
-      <c r="I10" s="7">
-        <v>264188</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>811</v>
-      </c>
-      <c r="N10" s="7">
-        <v>543753</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1262,49 +1372,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>1933</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>190</v>
+      </c>
+      <c r="I11" s="7">
+        <v>126816</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>402</v>
+      </c>
+      <c r="N11" s="7">
+        <v>268331</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1415</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3348</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,102 +1423,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1081</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>719445</v>
+        <v>1933</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>683</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2617</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I13" s="7">
-        <v>679606</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1399050</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,49 +1527,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>3255</v>
+        <v>204116</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="7">
+        <v>285</v>
+      </c>
+      <c r="I14" s="7">
+        <v>193414</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>592</v>
+      </c>
+      <c r="N14" s="7">
+        <v>397529</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1415</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4671</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,55 +1578,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3255</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1415</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4671</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1081</v>
+      </c>
+      <c r="D17" s="7">
+        <v>719445</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679606</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2097</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1399050</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1529,8 +1800,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0218B2-472D-407C-888B-2068AC00EC78}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062CFC52-6C42-495D-882F-9AA368E57179}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1546,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1647,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1659,13 +1930,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1674,22 +1945,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,49 +1969,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,49 +2020,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,49 +2073,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>238578</v>
+        <v>744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>227388</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>648</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>465966</v>
+        <v>744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,49 +2124,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>1522</v>
+        <v>266357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>790</v>
+        <v>234476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>707</v>
       </c>
       <c r="N8" s="7">
-        <v>2312</v>
+        <v>500832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,49 +2175,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,49 +2228,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>397</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>269497</v>
+        <v>777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
-        <v>759</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>523699</v>
+        <v>1568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,49 +2279,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>857</v>
+        <v>157794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="N11" s="7">
-        <v>857</v>
+        <v>311837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,102 +2330,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1063</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>745763</v>
+        <v>857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>706138</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
-        <v>2080</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1451900</v>
+        <v>857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,49 +2434,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>2379</v>
+        <v>177100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>790</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="N14" s="7">
-        <v>3170</v>
+        <v>348437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,55 +2485,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2379</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>790</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3170</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1063</v>
+      </c>
+      <c r="D17" s="7">
+        <v>745763</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I17" s="7">
+        <v>706138</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2080</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1451900</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2275,8 +2707,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C75141-3915-4D6F-83C3-AE878344C34F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451A65B-2654-43D8-84FF-5369D6578EEC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2292,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2393,49 +2825,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>414431</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,49 +2876,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,49 +2927,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,49 +2980,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
-        <v>358</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>233973</v>
+        <v>1360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
-        <v>721</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>484025</v>
+        <v>1360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,49 +3031,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="I8" s="7">
-        <v>1360</v>
+        <v>209157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>710</v>
       </c>
       <c r="N8" s="7">
-        <v>1360</v>
+        <v>467218</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,49 +3082,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,49 +3135,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281629</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>549399</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,49 +3186,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,102 +3237,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>744844</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>703011</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
-        <v>2124</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1447855</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,49 +3341,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>1360</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>1360</v>
+        <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,55 +3392,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1360</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1360</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="I17" s="7">
+        <v>703011</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2124</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1447855</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D18" s="7">
+        <v>744844</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E4D815-5678-4807-A838-41B61B5557DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97ACA70A-40B9-4699-8EE7-604991711A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0F8459E-75BC-497A-9D2A-AD5D159BB844}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{402FD00F-4439-4482-B3E7-30ACFDDA3BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,7 +112,7 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -127,7 +127,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>98,41%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -145,25 +145,25 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,8%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,2%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,49%</t>
+    <t>98,45%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -175,13 +175,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,51%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -190,13 +190,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,49%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -205,13 +205,13 @@
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -223,13 +223,10 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -244,16 +241,13 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -286,7 +280,7 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -298,7 +292,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -310,37 +304,37 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -349,13 +343,13 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,55%</t>
+    <t>97,79%</t>
   </si>
   <si>
     <t>99,21%</t>
@@ -364,7 +358,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,62%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -379,7 +373,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,06%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -400,10 +394,10 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -418,10 +412,16 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -463,25 +463,19 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -893,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC5C5C5-C856-4D19-8F29-BC57E446DC72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F1A36-3217-494D-8F58-1DA7CDFBF2D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1637,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1652,13 +1646,13 @@
         <v>1415</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1667,13 +1661,13 @@
         <v>4671</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,13 +1682,13 @@
         <v>719445</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -1703,10 +1697,10 @@
         <v>679606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1718,13 +1712,13 @@
         <v>1399050</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,7 +1774,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062CFC52-6C42-495D-882F-9AA368E57179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94682E6D-0EF6-487E-8BBD-549907C7A163}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1817,7 +1811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1930,7 +1924,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1945,7 +1939,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1978,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -1993,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2008,7 +2002,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2079,13 +2073,13 @@
         <v>744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2109,13 +2103,13 @@
         <v>744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,10 +2124,10 @@
         <v>266357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2160,10 +2154,10 @@
         <v>500832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2234,13 +2228,13 @@
         <v>777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2255,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2264,13 +2258,13 @@
         <v>1568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2279,10 @@
         <v>157794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2303,7 +2297,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2315,10 +2309,10 @@
         <v>311837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2389,13 +2383,13 @@
         <v>857</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2410,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2419,13 +2413,13 @@
         <v>857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2434,10 @@
         <v>177100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2458,7 +2452,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2470,10 +2464,10 @@
         <v>348437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2544,13 +2538,13 @@
         <v>2379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2559,13 +2553,13 @@
         <v>790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2574,13 +2568,13 @@
         <v>3170</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2589,13 @@
         <v>745763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>1017</v>
@@ -2610,10 +2604,10 @@
         <v>706138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2625,13 +2619,13 @@
         <v>1451900</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2681,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2707,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3451A65B-2654-43D8-84FF-5369D6578EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC14D0-CBA0-4678-A086-F1C727743C18}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2724,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2852,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2867,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2879,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2900,7 +2894,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2915,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2992,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3007,7 +3001,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3022,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3055,7 +3049,7 @@
         <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3472,7 +3466,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3481,13 +3475,13 @@
         <v>1360</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3499,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3517,10 +3511,10 @@
         <v>703011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3532,10 +3526,10 @@
         <v>1447855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3594,7 +3588,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1004-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97ACA70A-40B9-4699-8EE7-604991711A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB99F094-485F-4A99-9434-9C66CD87BCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{402FD00F-4439-4482-B3E7-30ACFDDA3BBE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{333D4361-097A-4F8B-A1F0-5F3456D9FDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="148">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,94 +94,100 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,45%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -190,292 +196,292 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,49%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,35%</t>
+    <t>98,39%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -887,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F1A36-3217-494D-8F58-1DA7CDFBF2D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF801CA-6471-468E-B813-ADC79E694F08}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1056,10 +1062,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1071,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1107,25 +1113,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1160,31 +1166,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1322</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -1211,34 +1217,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>379</v>
+      </c>
+      <c r="D8" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252434</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>379</v>
-      </c>
-      <c r="I8" s="7">
-        <v>253205</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>759</v>
@@ -1262,25 +1268,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1315,34 +1321,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>732</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1351,13 +1357,13 @@
         <v>732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,34 +1372,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>190</v>
+      </c>
+      <c r="D11" s="7">
+        <v>126816</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141515</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>190</v>
-      </c>
-      <c r="I11" s="7">
-        <v>126816</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -1402,10 +1408,10 @@
         <v>268331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1417,25 +1423,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1464,40 +1470,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>683</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1933</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>683</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1506,13 +1512,13 @@
         <v>2617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,34 +1527,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>285</v>
+      </c>
+      <c r="D14" s="7">
+        <v>193414</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>307</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>204116</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="7">
-        <v>285</v>
-      </c>
-      <c r="I14" s="7">
-        <v>193414</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>592</v>
@@ -1557,13 +1563,13 @@
         <v>397529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,25 +1578,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1625,34 +1631,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1415</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3255</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1415</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1661,13 +1667,13 @@
         <v>4671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,34 +1682,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679606</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1081</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>719445</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679606</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -1712,13 +1718,13 @@
         <v>1399050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,25 +1733,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94682E6D-0EF6-487E-8BBD-549907C7A163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE24B509-7272-4E03-8A17-D98641339FF7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1811,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1924,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1939,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1954,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,31 +1969,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2002,7 +2008,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2014,25 +2020,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2067,34 +2073,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>744</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2103,13 +2109,13 @@
         <v>744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,34 +2124,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>337</v>
+      </c>
+      <c r="D8" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>370</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>266357</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>337</v>
-      </c>
-      <c r="I8" s="7">
-        <v>234476</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>707</v>
@@ -2154,10 +2160,10 @@
         <v>500832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2169,25 +2175,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2225,31 +2231,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2258,13 +2264,13 @@
         <v>1568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,31 +2279,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>219</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154044</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>157794</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>219</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154044</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2309,10 +2315,10 @@
         <v>311837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2324,25 +2330,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2371,40 +2377,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>857</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2413,13 +2419,13 @@
         <v>857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,34 +2434,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>261</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177100</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>504</v>
@@ -2464,10 +2470,10 @@
         <v>348437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2479,25 +2485,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2532,34 +2538,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>790</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2379</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>790</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2568,13 +2574,13 @@
         <v>3170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,34 +2589,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706138</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1063</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>745763</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706138</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>2080</v>
@@ -2619,13 +2625,13 @@
         <v>1451900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,25 +2640,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2681,7 +2687,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC14D0-CBA0-4678-A086-F1C727743C18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A340E47-80AF-4FF2-9C23-859D84F227BA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2831,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2846,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2861,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,31 +2876,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2909,7 +2915,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2921,25 +2927,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2974,34 +2980,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1360</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3010,13 +3016,13 @@
         <v>1360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,34 +3031,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>330</v>
+      </c>
+      <c r="D8" s="7">
+        <v>209157</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>258061</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>330</v>
-      </c>
-      <c r="I8" s="7">
-        <v>209157</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -3061,10 +3067,10 @@
         <v>467218</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3076,25 +3082,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3141,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3156,7 +3162,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3171,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,31 +3186,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>263</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3219,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3231,25 +3237,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3278,7 +3284,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3296,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3311,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3326,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,31 +3341,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>174048</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3374,7 +3380,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3386,25 +3392,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3439,34 +3445,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1360</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3475,13 +3481,13 @@
         <v>1360</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,34 +3496,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="D17" s="7">
+        <v>703011</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1065</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>744844</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703011</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>2124</v>
@@ -3526,10 +3532,10 @@
         <v>1447855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3541,25 +3547,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3588,7 +3594,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
